--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb163/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51E1E01-BCA3-1446-A74C-0672B5C015FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E341D4-D9EC-DE42-BD23-83F9BF1618C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19820" yWindow="460" windowWidth="16920" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>Pounds</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -511,12 +514,12 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1306,10 +1309,10 @@
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C57" s="3">
         <v>23092715</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table18.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E341D4-D9EC-DE42-BD23-83F9BF1618C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C401B3-0212-044B-9644-4E516B0CF990}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19820" yWindow="460" windowWidth="16920" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,7 +514,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
